--- a/1需求分析/V2.0需求矩阵.xlsx
+++ b/1需求分析/V2.0需求矩阵.xlsx
@@ -316,6 +316,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,9 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,8 +633,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -648,13 +648,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
@@ -674,7 +674,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="33">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -693,7 +693,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="49.5">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="49.5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -732,14 +732,14 @@
         <v>24</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
@@ -775,14 +775,14 @@
         <v>29</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="33">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>

--- a/1需求分析/V2.0需求矩阵.xlsx
+++ b/1需求分析/V2.0需求矩阵.xlsx
@@ -144,11 +144,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、官方话题的评论需要展示评论人小区信息，若一个人属于多小区？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、上次说APP长按可以看到此话题ID，由BSS删除，那还有无必要做APP超管删除</t>
+    <t>1、官方话题的评论需要展示评论人小区信息，若一个人属于多小区？:  以用户主页选择的为准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑科技：长按显示话题ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +634,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -766,7 +766,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="32.1" customHeight="1">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="49.5">
       <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
         <v>23</v>
@@ -775,7 +775,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="7"/>
@@ -794,7 +794,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="33">
+    <row r="11" spans="1:7" s="4" customFormat="1">
       <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
         <v>28</v>

--- a/1需求分析/V2.0需求矩阵.xlsx
+++ b/1需求分析/V2.0需求矩阵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,26 @@
   </si>
   <si>
     <t>黑科技：长按显示话题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳蚤市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、按发布时间降序排序；  2、超过15天没有关闭的信息，自动关闭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +653,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -807,10 +827,16 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="33">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="7"/>
@@ -818,7 +844,9 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="30.95" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -827,7 +855,9 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="23.1" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>

--- a/1需求分析/V2.0需求矩阵.xlsx
+++ b/1需求分析/V2.0需求矩阵.xlsx
@@ -293,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +349,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +657,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -828,7 +831,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="33">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -843,7 +846,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
@@ -854,7 +857,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
@@ -1346,10 +1349,11 @@
       <c r="G73" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
